--- a/data/trans_bre/IP09-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP09-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 28,49</t>
+          <t>-39,37; 27,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-51,21; 14,71</t>
+          <t>-47,28; 15,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-78,5; 45,14</t>
+          <t>-77,08; 44,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-51,88; 60,23</t>
+          <t>-49,71; 55,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-87,66; 196,28</t>
+          <t>-87,17; 196,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-68,72; 42,26</t>
+          <t>-65,18; 39,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 267,79</t>
+          <t>-100,0; 271,93</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 12,48</t>
+          <t>-20,15; 11,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 15,26</t>
+          <t>-12,07; 15,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 18,01</t>
+          <t>-21,26; 17,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 20,73</t>
+          <t>-12,51; 23,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,9; 51,91</t>
+          <t>-56,95; 48,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 61,57</t>
+          <t>-31,48; 58,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,47; 53,59</t>
+          <t>-41,64; 51,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,44; 93,33</t>
+          <t>-33,11; 107,27</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 17,3</t>
+          <t>-28,79; 14,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 28,59</t>
+          <t>-19,51; 29,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-48,77; 19,74</t>
+          <t>-49,65; 17,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 29,22</t>
+          <t>-19,79; 31,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-81,73; 164,91</t>
+          <t>-86,13; 119,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,58; 297,27</t>
+          <t>-66,34; 263,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-72,56; 58,71</t>
+          <t>-70,04; 56,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-55,84; 238,48</t>
+          <t>-56,37; 224,58</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 6,48</t>
+          <t>-17,14; 5,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 12,76</t>
+          <t>-10,04; 13,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 11,73</t>
+          <t>-21,27; 11,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 19,15</t>
+          <t>-10,18; 20,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,39; 27,5</t>
+          <t>-51,84; 22,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,3; 44,5</t>
+          <t>-25,94; 49,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,4; 31,92</t>
+          <t>-39,97; 29,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,16; 75,56</t>
+          <t>-26,93; 80,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP09-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP09-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que padecen actualmente alguna dolencia o enfermedad continuada</t>
+          <t>Menores que padecen actualmente esa dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>22,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>44,36%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,37; 27,52</t>
+          <t>-39,9; 28,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-47,28; 15,7</t>
+          <t>-49,78; 16,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-77,08; 44,69</t>
+          <t>-77,73; 44,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-49,71; 55,24</t>
+          <t>-44,67; 70,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-87,17; 196,85</t>
+          <t>-89,55; 232,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,18; 39,4</t>
+          <t>-67,72; 39,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 271,93</t>
+          <t>-100,0; 402,51</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>16,7%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 11,29</t>
+          <t>-20,78; 12,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 15,09</t>
+          <t>-12,51; 16,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 17,84</t>
+          <t>-20,59; 18,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 23,27</t>
+          <t>-11,42; 25,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,95; 48,18</t>
+          <t>-56,46; 50,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 58,42</t>
+          <t>-31,32; 62,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,64; 51,69</t>
+          <t>-40,26; 54,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,11; 107,27</t>
+          <t>-30,88; 135,59</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>20,19%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,79; 14,15</t>
+          <t>-29,26; 13,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 29,5</t>
+          <t>-17,68; 30,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-49,65; 17,68</t>
+          <t>-54,23; 16,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 31,26</t>
+          <t>-20,81; 27,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-86,13; 119,01</t>
+          <t>-86,7; 158,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,34; 263,65</t>
+          <t>-61,15; 317,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-70,04; 56,15</t>
+          <t>-73,29; 54,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-56,37; 224,58</t>
+          <t>-61,07; 206,87</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>27,36%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 5,51</t>
+          <t>-18,11; 5,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 13,87</t>
+          <t>-12,28; 11,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 11,48</t>
+          <t>-20,83; 10,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 20,11</t>
+          <t>-6,45; 29,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,84; 22,52</t>
+          <t>-54,18; 22,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 49,44</t>
+          <t>-30,34; 39,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,97; 29,22</t>
+          <t>-39,86; 26,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 80,09</t>
+          <t>-21,14; 133,41</t>
         </is>
       </c>
     </row>
